--- a/Manuscript_Code/D_Feature_Comparisons/Output_FeatureComparison/Top5/5metab_filtered_03112025.xlsx
+++ b/Manuscript_Code/D_Feature_Comparisons/Output_FeatureComparison/Top5/5metab_filtered_03112025.xlsx
@@ -1,131 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suzettepalmer/Desktop/IntegratedLearner_March2025/Code_and_Files/Feature_Comparisons/Top5/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B2BA48-A079-4F48-8C44-26F034B31ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="28200" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Dataframe_Name</t>
-  </si>
-  <si>
-    <t>all_overlap</t>
-  </si>
-  <si>
-    <t>enet_rf_overlap</t>
-  </si>
-  <si>
-    <t>enet_xgb_overlap</t>
-  </si>
-  <si>
-    <t>rf_xgb_overlap</t>
-  </si>
-  <si>
-    <t>enet_only</t>
-  </si>
-  <si>
-    <t>rf_only</t>
-  </si>
-  <si>
-    <t>xgb_only</t>
-  </si>
-  <si>
-    <t>era_age</t>
-  </si>
-  <si>
-    <t>era_alcohol</t>
-  </si>
-  <si>
-    <t>era_cholesterol</t>
-  </si>
-  <si>
-    <t>era_glucose</t>
-  </si>
-  <si>
-    <t>era_sg</t>
-  </si>
-  <si>
-    <t>franzosa_ControlvsCD_Age</t>
-  </si>
-  <si>
-    <t>franzosa_ControlvsCD_Fp</t>
-  </si>
-  <si>
-    <t>franzosa_ControlvsDisease_Age</t>
-  </si>
-  <si>
-    <t>franzosa_ControlvsDisease_ConvDisease</t>
-  </si>
-  <si>
-    <t>franzosa_ControlvsDisease_Fp</t>
-  </si>
-  <si>
-    <t>franzosa_ControlvsUC_Age</t>
-  </si>
-  <si>
-    <t>franzosa_ControlvsUC_Fp</t>
-  </si>
-  <si>
-    <t>yachida_age</t>
-  </si>
-  <si>
-    <t>yachida_alcohol</t>
-  </si>
-  <si>
-    <t>yachida_BrinkmanIndex</t>
-  </si>
-  <si>
-    <t>yachida_gender</t>
-  </si>
-  <si>
-    <t>yachida_healthyvscancer</t>
-  </si>
-  <si>
-    <t>yachida_healthyvsearly</t>
-  </si>
-  <si>
-    <t>yachida_healthyvsstageI_II</t>
-  </si>
-  <si>
-    <t>yachida_healthyvsstageIII_IV</t>
-  </si>
-  <si>
-    <t>wang_age</t>
-  </si>
-  <si>
-    <t>wang_creatinine</t>
-  </si>
-  <si>
-    <t>wang_egfr</t>
-  </si>
-  <si>
-    <t>wang_studygroup</t>
-  </si>
-  <si>
-    <t>wang_urea</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,18 +32,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -168,33 +52,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -232,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -266,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -301,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -477,258 +350,287 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="31.83203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Dataframe_Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>all_overlap</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>enet_rf_overlap</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enet_xgb_overlap</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rf_xgb_overlap</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>enet_only</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rf_only</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>xgb_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>era_age</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>0.4</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.2</v>
+      </c>
+      <c r="E2">
+        <v>0.4</v>
+      </c>
+      <c r="F2">
+        <v>0.4</v>
+      </c>
+      <c r="G2">
+        <v>0.2</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>era_alcohol</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+      <c r="E3">
+        <v>0.4</v>
+      </c>
+      <c r="F3">
+        <v>0.8</v>
+      </c>
+      <c r="G3">
+        <v>0.6</v>
+      </c>
+      <c r="H3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>era_cholesterol</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>0.2</v>
+      </c>
+      <c r="D4">
+        <v>0.4</v>
+      </c>
+      <c r="E4">
+        <v>0.2</v>
+      </c>
+      <c r="F4">
+        <v>0.2</v>
+      </c>
+      <c r="G4">
+        <v>0.4</v>
+      </c>
+      <c r="H4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>era_glucose</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>0.4</v>
+      </c>
+      <c r="C5">
+        <v>0.4</v>
+      </c>
+      <c r="D5">
+        <v>0.2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.2</v>
+      </c>
+      <c r="H5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>era_sg</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>0.2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.6</v>
+      </c>
+      <c r="F6">
+        <v>0.8</v>
+      </c>
+      <c r="G6">
+        <v>0.2</v>
+      </c>
+      <c r="H6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>franzosa_ControlvsCD_Age</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>0.2</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0.6</v>
+      </c>
+      <c r="F7">
+        <v>0.8</v>
+      </c>
+      <c r="G7">
+        <v>0.2</v>
+      </c>
+      <c r="H7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>franzosa_ControlvsCD_ConvCD</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0.6</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>0.4</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0.2</v>
-      </c>
-      <c r="E2">
-        <v>0.4</v>
-      </c>
-      <c r="F2">
-        <v>0.4</v>
-      </c>
-      <c r="G2">
-        <v>0.2</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0.2</v>
-      </c>
-      <c r="E3">
-        <v>0.4</v>
-      </c>
-      <c r="F3">
-        <v>0.8</v>
-      </c>
-      <c r="G3">
-        <v>0.6</v>
-      </c>
-      <c r="H3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>0.2</v>
-      </c>
-      <c r="C4">
-        <v>0.2</v>
-      </c>
-      <c r="D4">
-        <v>0.4</v>
-      </c>
-      <c r="E4">
-        <v>0.2</v>
-      </c>
-      <c r="F4">
-        <v>0.2</v>
-      </c>
-      <c r="G4">
-        <v>0.4</v>
-      </c>
-      <c r="H4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>0.4</v>
-      </c>
-      <c r="C5">
-        <v>0.4</v>
-      </c>
-      <c r="D5">
-        <v>0.2</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0.2</v>
-      </c>
-      <c r="H5">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>0.2</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0.6</v>
-      </c>
-      <c r="F6">
-        <v>0.8</v>
-      </c>
-      <c r="G6">
-        <v>0.2</v>
-      </c>
-      <c r="H6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>0.2</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0.6</v>
-      </c>
-      <c r="F7">
-        <v>0.8</v>
-      </c>
-      <c r="G7">
-        <v>0.2</v>
-      </c>
-      <c r="H7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>0.6</v>
-      </c>
-      <c r="C8">
-        <v>0.2</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0.2</v>
-      </c>
-      <c r="F8">
-        <v>0.2</v>
-      </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>franzosa_ControlvsCD_Fp</t>
+        </is>
       </c>
       <c r="B9">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="F9">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="G9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>16</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>franzosa_ControlvsDisease_Age</t>
+        </is>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -740,96 +642,104 @@
         <v>0.6</v>
       </c>
       <c r="F10">
+        <v>0.8</v>
+      </c>
+      <c r="G10">
+        <v>0.2</v>
+      </c>
+      <c r="H10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>franzosa_ControlvsDisease_ConvDisease</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0.6</v>
+      </c>
+      <c r="F11">
         <v>1</v>
       </c>
-      <c r="G10">
-        <v>0.4</v>
-      </c>
-      <c r="H10">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>0.6</v>
-      </c>
-      <c r="C11">
-        <v>0.2</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0.2</v>
-      </c>
-      <c r="F11">
-        <v>0.2</v>
-      </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H11">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>franzosa_ControlvsDisease_Fp</t>
+        </is>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="F12">
+        <v>0.2</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>franzosa_ControlvsUC_Age</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0.6</v>
+      </c>
+      <c r="F13">
         <v>1</v>
       </c>
-      <c r="G12">
-        <v>0.4</v>
-      </c>
-      <c r="H12">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>0.4</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0.4</v>
-      </c>
-      <c r="F13">
-        <v>0.6</v>
-      </c>
       <c r="G13">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H13">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>franzosa_ControlvsUC_ConvUC</t>
+        </is>
       </c>
       <c r="B14">
         <v>0</v>
@@ -838,50 +748,54 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0.6</v>
       </c>
       <c r="F14">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>0.4</v>
       </c>
       <c r="H14">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>franzosa_ControlvsUC_Fp</t>
+        </is>
       </c>
       <c r="B15">
         <v>0.4</v>
       </c>
       <c r="C15">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F15">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G15">
         <v>0.2</v>
       </c>
       <c r="H15">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>yachida_age</t>
+        </is>
       </c>
       <c r="B16">
         <v>0</v>
@@ -890,50 +804,54 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E16">
         <v>0.6</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G16">
         <v>0.4</v>
       </c>
       <c r="H16">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>23</v>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>yachida_alcohol</t>
+        </is>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G17">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H17">
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>24</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>yachida_BrinkmanIndex</t>
+        </is>
       </c>
       <c r="B18">
         <v>0</v>
@@ -945,21 +863,23 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H18">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>25</v>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>yachida_gender</t>
+        </is>
       </c>
       <c r="B19">
         <v>0</v>
@@ -983,9 +903,11 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>26</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>yachida_healthyvscancer</t>
+        </is>
       </c>
       <c r="B20">
         <v>0</v>
@@ -994,24 +916,26 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="F20">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H20">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>27</v>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>yachida_healthyvsearly</t>
+        </is>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1023,50 +947,54 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H21">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>yachida_healthyvsstageI_II</t>
+        </is>
       </c>
       <c r="B22">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E22">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F22">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G22">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H22">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>yachida_healthyvsstageIII_IV</t>
+        </is>
       </c>
       <c r="B23">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1078,44 +1006,48 @@
         <v>0.8</v>
       </c>
       <c r="F23">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>wang_age</t>
+        </is>
       </c>
       <c r="B24">
         <v>0.2</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F24">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>31</v>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>wang_creatinine</t>
+        </is>
       </c>
       <c r="B25">
         <v>0.2</v>
@@ -1139,9 +1071,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>32</v>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>wang_egfr</t>
+        </is>
       </c>
       <c r="B26">
         <v>0.2</v>
@@ -1153,15 +1087,71 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F26">
         <v>0.8</v>
       </c>
       <c r="G26">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>wang_studygroup</t>
+        </is>
+      </c>
+      <c r="B27">
+        <v>0.2</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0.8</v>
+      </c>
+      <c r="F27">
+        <v>0.8</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>wang_urea</t>
+        </is>
+      </c>
+      <c r="B28">
+        <v>0.2</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0.6</v>
+      </c>
+      <c r="F28">
+        <v>0.8</v>
+      </c>
+      <c r="G28">
+        <v>0.2</v>
+      </c>
+      <c r="H28">
         <v>0.2</v>
       </c>
     </row>
